--- a/pred_ohlcv/54_21/2019-10-30 OMG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 OMG ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-8640.047046194704</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-9111.630246194703</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-9121.630246194703</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-8960.495946194704</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-9070.088246194704</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-9065.557746194703</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-9271.627146194704</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-9199.042146194704</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-9490.363146194704</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-9490.363146194704</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-9274.035646194705</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-8647.771146194706</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-8246.427846194705</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-8196.472746194706</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-8054.947646194706</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-7802.484046194706</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-8071.984046194706</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-7971.705746194706</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-7974.357679896363</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-7993.617079896363</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-26619.34363808832</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-26619.34363808832</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-26619.34363808832</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-29253.01053808832</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-33272.28873808832</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-30783.54743808832</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-24295.37307591043</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-24294.135762522</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-23088.571362522</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-23021.070862522</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-21936.341762522</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-16817.65836252199</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-16817.65836252199</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-16719.23596252199</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-16693.66746252199</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-16286.92006252199</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-16286.92006252199</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-11116.15956252199</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-10878.89306252199</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-8985.923669157064</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-4078.273506793146</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-4105.763506793146</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-4252.801706793146</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-7472.822606793146</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-4658.102134980003</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-5003.013872031795</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-4290.263672031795</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-6397.998272031795</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-7386.951672031795</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-5901.672972031795</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-4860.019772031796</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-30 OMG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 OMG ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-8640.047046194704</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-9111.630246194703</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-9121.630246194703</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-8960.495946194704</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-9070.088246194704</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-9065.557746194703</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-9271.627146194704</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-9199.042146194704</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-9490.363146194704</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-9490.363146194704</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-9274.035646194705</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-8647.771146194706</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-8246.427846194705</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-8196.472746194706</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-8054.947646194706</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-26619.34363808832</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-26619.34363808832</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-26619.34363808832</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-29253.01053808832</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-33272.28873808832</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-30783.54743808832</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-24294.135762522</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-23088.571362522</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-16817.65836252199</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-16817.65836252199</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-16719.23596252199</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-16693.66746252199</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-16286.92006252199</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-16286.92006252199</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-11116.15956252199</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-10878.89306252199</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-8985.923669157064</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-4078.273506793146</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-4105.763506793146</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-4252.801706793146</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-7472.822606793146</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-4658.102134980003</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-3331.515972031796</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-5003.013872031795</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-4290.263672031795</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-6397.998272031795</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-7386.951672031795</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
